--- a/artfynd/A 643-2026 artfynd.xlsx
+++ b/artfynd/A 643-2026 artfynd.xlsx
@@ -1199,7 +1199,7 @@
         <v>130625982</v>
       </c>
       <c r="B6" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
